--- a/jumlah_aset.xlsx
+++ b/jumlah_aset.xlsx
@@ -359,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,6 +413,14 @@
       </c>
       <c r="B6">
         <v>3674447000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>56889447000</v>
       </c>
     </row>
   </sheetData>

--- a/jumlah_aset.xlsx
+++ b/jumlah_aset.xlsx
@@ -359,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,14 +413,6 @@
       </c>
       <c r="B6">
         <v>3674447000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2020</v>
-      </c>
-      <c r="B7">
-        <v>56889447000</v>
       </c>
     </row>
   </sheetData>
